--- a/data/trans_bre/P2A_psíq_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2A_psíq_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -673,37 +673,37 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 1,09</t>
+          <t>-2,19; 1,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 1,81</t>
+          <t>-0,73; 1,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 1,8</t>
+          <t>-2,06; 1,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-59,15; 51,23</t>
+          <t>-58,26; 54,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-49,93; 45,22</t>
+          <t>-49,68; 44,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-37,13; 159,55</t>
+          <t>-28,82; 161,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-36,27; 70,04</t>
+          <t>-36,57; 70,52</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 0,71</t>
+          <t>-0,33; 0,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,09</t>
+          <t>-0,43; 1,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 1,38</t>
+          <t>-0,09; 1,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 21,45</t>
+          <t>0,67; 24,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,45; 259,55</t>
+          <t>-51,07; 392,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,36; 134,55</t>
+          <t>-29,39; 127,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,4; 290,41</t>
+          <t>-14,53; 282,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,34; 1445,57</t>
+          <t>29,71; 1753,24</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,6</t>
+          <t>0,33; 2,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 2,08</t>
+          <t>-1,39; 2,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 1,68</t>
+          <t>-0,34; 1,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 1,22</t>
+          <t>-1,86; 1,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-72,32; 381,95</t>
+          <t>-71,81; 491,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-58,35; 87,58</t>
+          <t>-54,87; 102,8</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 0,72</t>
+          <t>-0,31; 0,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 1,0</t>
+          <t>-0,49; 0,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,07; 1,2</t>
+          <t>0,13; 1,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 11,81</t>
+          <t>0,41; 17,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,89; 105,85</t>
+          <t>-29,84; 106,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,64; 66,44</t>
+          <t>-22,97; 64,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,73; 164,84</t>
+          <t>6,57; 172,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,55; 658,91</t>
+          <t>15,83; 860,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_psíq_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2A_psíq_R-Estudios-trans_bre.xlsx
@@ -620,14 +620,14 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-0,36</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>-0,44</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,44</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
           <t>0,54</t>
@@ -635,12 +635,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-22,34%</t>
+          <t>-18,21%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>3,17%</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 0,64</t>
+          <t>-1,5; 0,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 1,77</t>
+          <t>-1,86; 1,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-58,26; 54,29</t>
+          <t>-56,57; 59,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-36,57; 70,52</t>
+          <t>-35,88; 72,62</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,68</t>
+          <t>9,83</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -750,12 +750,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>80,21%</t>
+          <t>86,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>305,09%</t>
+          <t>576,17%</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 1,36</t>
+          <t>-0,06; 1,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 24,84</t>
+          <t>0,62; 38,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,53; 282,17</t>
+          <t>-9,34; 290,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,71; 1753,24</t>
+          <t>33,04; 3244,21</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -835,12 +835,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>715,48%</t>
+          <t>836,84%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-9,22%</t>
+          <t>3,45%</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,71</t>
+          <t>0,5; 3,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 1,33</t>
+          <t>-1,63; 1,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-54,87; 102,8</t>
+          <t>-50,13; 132,58</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -930,17 +930,17 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>6,18</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>28,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -950,12 +950,12 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>69,02%</t>
+          <t>71,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>150,03%</t>
+          <t>292,22%</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 0,72</t>
+          <t>-0,26; 0,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -978,17 +978,17 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,26</t>
+          <t>0,15; 1,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 17,29</t>
+          <t>0,53; 29,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,84; 106,94</t>
+          <t>-26,02; 112,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,57; 172,72</t>
+          <t>9,3; 178,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,83; 860,39</t>
+          <t>22,26; 1633,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_psíq_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2A_psíq_R-Estudios-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad psíquica</t>
+          <t>Hogares con personas con limitación por discapacidad psíquica</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 0,71</t>
+          <t>-1,58; 0,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 1,01</t>
+          <t>-2,07; 1,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,95</t>
+          <t>-0,81; 1,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 1,76</t>
+          <t>-1,68; 1,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-56,57; 59,36</t>
+          <t>-59,36; 48,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-49,68; 44,46</t>
+          <t>-46,37; 44,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-28,82; 161,57</t>
+          <t>-32,43; 162,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-35,88; 72,62</t>
+          <t>-33,29; 65,7</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 0,84</t>
+          <t>-0,36; 0,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 1,17</t>
+          <t>-0,47; 1,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 1,4</t>
+          <t>-0,03; 1,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,62; 38,85</t>
+          <t>0,63; 34,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-51,07; 392,18</t>
+          <t>-54,05; 299,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,39; 127,42</t>
+          <t>-29,33; 122,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 290,59</t>
+          <t>-6,47; 273,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,04; 3244,21</t>
+          <t>28,59; 2661,17</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 3,08</t>
+          <t>0,45; 2,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 2,29</t>
+          <t>-1,46; 2,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 1,61</t>
+          <t>-0,32; 1,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 1,68</t>
+          <t>-1,61; 1,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-71,81; 491,76</t>
+          <t>-70,19; 432,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,77; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-50,13; 132,58</t>
+          <t>-49,81; 148,67</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 0,78</t>
+          <t>-0,24; 0,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 0,92</t>
+          <t>-0,5; 0,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,3</t>
+          <t>0,13; 1,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 29,11</t>
+          <t>0,5; 23,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,02; 112,17</t>
+          <t>-23,18; 109,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,97; 64,58</t>
+          <t>-22,84; 62,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,3; 178,72</t>
+          <t>5,2; 172,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,26; 1633,83</t>
+          <t>23,38; 1252,75</t>
         </is>
       </c>
     </row>
